--- a/src/test/resources/exam.xlsx
+++ b/src/test/resources/exam.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="155">
   <si>
     <t>是否执行</t>
   </si>
@@ -2012,10 +2012,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="18.75" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="16.25" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="20.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="18.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="18.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
@@ -2275,12 +2275,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="21.25" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="17.25" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="38.25" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="6.5" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="19.625" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="21.25" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.25" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="38.25" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
